--- a/xlsx/中国现代国际关系研究院_intext.xlsx
+++ b/xlsx/中国现代国际关系研究院_intext.xlsx
@@ -29,7 +29,7 @@
     <t>北京市</t>
   </si>
   <si>
-    <t>政策_政策_智庫_中国现代国际关系研究院</t>
+    <t>政策_政策_智库_中国现代国际关系研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B7%80%E5%8C%BA</t>
